--- a/TestData/User_Details.xlsx
+++ b/TestData/User_Details.xlsx
@@ -8,11 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
@@ -378,12 +375,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -410,28 +407,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>